--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15885" windowHeight="3885" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="3990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="DataProviderOrg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N10"/>
+  <oleSize ref="A1:O11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -692,7 +692,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
